--- a/导表工具/G-功能开启.xlsx
+++ b/导表工具/G-功能开启.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>导出类型</t>
   </si>
@@ -485,12 +485,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +581,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -589,59 +701,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,22 +717,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -679,50 +725,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -770,19 +781,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,163 +949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,16 +1019,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,6 +1048,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1052,11 +1081,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,7 +1100,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,30 +1115,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1112,145 +1123,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1408,7 +1419,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1690,11 +1701,11 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/导表工具/G-功能开启.xlsx
+++ b/导表工具/G-功能开启.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>导出类型</t>
   </si>
@@ -485,12 +485,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,8 +581,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +597,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,9 +610,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +641,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,46 +694,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,48 +710,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -781,187 +770,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,16 +1008,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,24 +1037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1081,17 +1052,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,7 +1065,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,6 +1080,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1123,10 +1112,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,133 +1124,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1419,7 +1408,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1701,11 +1690,11 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
